--- a/sample-file-S295/test.xlsx
+++ b/sample-file-S295/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>SKU</t>
   </si>
@@ -544,19 +544,19 @@
         <v>56</v>
       </c>
       <c r="D2" s="6">
-        <f>13 / 7.2799 * 2</f>
+        <f>(13 * 2) / 7.2799</f>
       </c>
       <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
+      <c r="F2" s="6">
+        <f>(201.6 / 504) / 7.2799</f>
+      </c>
+      <c r="G2" s="6">
+        <f>100 / 7.2799 / K2</f>
+      </c>
+      <c r="H2" s="6">
+        <f>(8.5 / 7.2727 * 105) / K2</f>
       </c>
       <c r="I2" s="7" t="s">
         <v>15</v>
@@ -585,19 +585,19 @@
         <v>224</v>
       </c>
       <c r="D3" s="11">
-        <f>13 / 7.2799</f>
+        <f>(13) / 7.2799</f>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
+      <c r="F3" s="11">
+        <f>(201.6 / 504) / 7.2799</f>
+      </c>
+      <c r="G3" s="11">
+        <f>100 / 7.2799 / K2</f>
+      </c>
+      <c r="H3" s="11">
+        <f>(8.5 / 7.2727 * 105) / K2</f>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
@@ -626,19 +626,19 @@
         <v>224</v>
       </c>
       <c r="D4" s="11">
-        <f>13 / 7.2799</f>
+        <f>(13) / 7.2799</f>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
+      <c r="F4" s="11">
+        <f>(201.6 / 504) / 7.2799</f>
+      </c>
+      <c r="G4" s="11">
+        <f>100 / 7.2799 / K2</f>
+      </c>
+      <c r="H4" s="11">
+        <f>(8.5 / 7.2727 * 105) / K2</f>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
